--- a/Método de corrección/medidasCorreccion_20_3.xlsx
+++ b/Método de corrección/medidasCorreccion_20_3.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -19,6 +19,7 @@
     <externalReference r:id="rId3"/>
   </externalReferences>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -81,7 +82,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="170" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -158,9 +159,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="170" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="170" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -15885,8 +15886,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M223"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D205" workbookViewId="0">
-      <selection activeCell="F223" sqref="F223"/>
+    <sheetView tabSelected="1" topLeftCell="E205" workbookViewId="0">
+      <selection activeCell="H225" sqref="H225:M226"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
